--- a/estadistica2/data/polarizacion.xlsx
+++ b/estadistica2/data/polarizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Library/CloudStorage/Dropbox/GitHub/uss/estadistica2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457B73B9-79EA-A046-AE87-5C8276F354E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882B3DFE-203C-0448-97A4-3141F0CB3712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{8561BDDA-7432-554C-8BCF-76811BFF4DB0}"/>
   </bookViews>
@@ -3065,8 +3065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437DA93D-D33A-1945-9A7B-FE98F7F4ABF3}">
   <dimension ref="A1:AZ403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AM18" sqref="AM18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3096,8 +3096,7 @@
     <col min="27" max="27" width="21" style="30" customWidth="1"/>
     <col min="28" max="28" width="11.83203125" style="30" customWidth="1"/>
     <col min="29" max="29" width="8" style="30" customWidth="1"/>
-    <col min="30" max="34" width="17.6640625" style="28" customWidth="1"/>
-    <col min="35" max="35" width="14.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="30" max="35" width="17.6640625" style="28" customWidth="1"/>
     <col min="36" max="36" width="16.33203125" style="30" customWidth="1"/>
     <col min="37" max="37" width="18" style="30" customWidth="1"/>
     <col min="38" max="38" width="17.6640625" style="22" customWidth="1"/>

--- a/estadistica2/data/polarizacion.xlsx
+++ b/estadistica2/data/polarizacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennethbunker/Library/CloudStorage/Dropbox/GitHub/uss/estadistica2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CE7EB1-F2CE-F04F-9389-256B53C01871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8490D9-A1D5-444A-9200-34144ACF313D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="780" windowWidth="27640" windowHeight="15780" xr2:uid="{BFD502B2-3DCB-E949-B293-328C3443BD99}"/>
   </bookViews>
@@ -41,15 +41,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>elección</t>
-  </si>
-  <si>
-    <t>elección_tipo</t>
-  </si>
-  <si>
-    <t>región</t>
-  </si>
-  <si>
     <t>region2</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t>distrito</t>
   </si>
   <si>
-    <t>número_papeleta</t>
-  </si>
-  <si>
     <t>electo</t>
   </si>
   <si>
@@ -86,9 +74,6 @@
     <t>edad</t>
   </si>
   <si>
-    <t>profesión</t>
-  </si>
-  <si>
     <t>lista</t>
   </si>
   <si>
@@ -197,9 +182,6 @@
     <t>Escaños Reservados</t>
   </si>
   <si>
-    <t>Tarapacá</t>
-  </si>
-  <si>
     <t>Wilfredo Manuel Bacian Delgado</t>
   </si>
   <si>
@@ -221,18 +203,12 @@
     <t>PPD-IND</t>
   </si>
   <si>
-    <t>Valparaíso</t>
-  </si>
-  <si>
     <t>Tiare Maeva Carolina Aguilera Hey</t>
   </si>
   <si>
     <t>Abogada</t>
   </si>
   <si>
-    <t>Los Ríos</t>
-  </si>
-  <si>
     <t>Victorino Ernesto Antilef Ñanco (Carmen Tomasa Caifil Caifil)</t>
   </si>
   <si>
@@ -284,9 +260,6 @@
     <t>Independent</t>
   </si>
   <si>
-    <t>Araucanía</t>
-  </si>
-  <si>
     <t>#D23 - Temuco</t>
   </si>
   <si>
@@ -380,9 +353,6 @@
     <t>Hernan Jesus Velasquez Nuñez</t>
   </si>
   <si>
-    <t>Sociólogo</t>
-  </si>
-  <si>
     <t>FRVS</t>
   </si>
   <si>
@@ -431,9 +401,6 @@
     <t>Atacama</t>
   </si>
   <si>
-    <t>#D4 - Copiapó</t>
-  </si>
-  <si>
     <t>YB15</t>
   </si>
   <si>
@@ -491,9 +458,6 @@
     <t>Activista</t>
   </si>
   <si>
-    <t>#D8 - Maipú</t>
-  </si>
-  <si>
     <t>ZN46</t>
   </si>
   <si>
@@ -503,12 +467,6 @@
     <t>La Lista Del Pueblo (D8)</t>
   </si>
   <si>
-    <t>Bío-Bío</t>
-  </si>
-  <si>
-    <t>#D20 - Concepción</t>
-  </si>
-  <si>
     <t>ZN43</t>
   </si>
   <si>
@@ -521,9 +479,6 @@
     <t>La Lista Del Pueblo(D20)</t>
   </si>
   <si>
-    <t>#D6 - Quilpué</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -593,9 +548,6 @@
     <t>Cristobal Patricio Andrade Leon</t>
   </si>
   <si>
-    <t>Mecánico</t>
-  </si>
-  <si>
     <t>Isabel Selena Godoy Monardez</t>
   </si>
   <si>
@@ -614,9 +566,6 @@
     <t>Alexis Reinaldo Caiman Gualaman (Carmen Veronica Jaramillo Gualaman)</t>
   </si>
   <si>
-    <t>Músico</t>
-  </si>
-  <si>
     <t>Isabella Brunilda Mamani Mamani</t>
   </si>
   <si>
@@ -668,9 +617,6 @@
     <t>PRO-IND</t>
   </si>
   <si>
-    <t>Aysén</t>
-  </si>
-  <si>
     <t>#D27 - Coyhaique</t>
   </si>
   <si>
@@ -692,9 +638,6 @@
     <t>Periodista</t>
   </si>
   <si>
-    <t>#D21 - Los Ángeles</t>
-  </si>
-  <si>
     <t>YV30</t>
   </si>
   <si>
@@ -719,9 +662,6 @@
     <t>Marco Antonio Arellano Ortega</t>
   </si>
   <si>
-    <t>Administrado Público</t>
-  </si>
-  <si>
     <t>#D10 - Santiago</t>
   </si>
   <si>
@@ -767,15 +707,9 @@
     <t>Luciano Ernesto Silva Mora</t>
   </si>
   <si>
-    <t>Teólogo</t>
-  </si>
-  <si>
     <t>Margarita Vargas Lopez</t>
   </si>
   <si>
-    <t>Ingeniera en Administración Pública</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
@@ -824,9 +758,6 @@
     <t>Jorge Bruno Abarca Riveros</t>
   </si>
   <si>
-    <t>Biólogo</t>
-  </si>
-  <si>
     <t>PL-IND</t>
   </si>
   <si>
@@ -863,9 +794,6 @@
     <t>Natalia Esther Henriquez Carreño</t>
   </si>
   <si>
-    <t>Médico</t>
-  </si>
-  <si>
     <t>YQ36</t>
   </si>
   <si>
@@ -938,9 +866,6 @@
     <t>Ñuble</t>
   </si>
   <si>
-    <t>#D19 - Chillán</t>
-  </si>
-  <si>
     <t>XJ6</t>
   </si>
   <si>
@@ -962,9 +887,6 @@
     <t>Carolina Cyntia Vilches Fuenzalida</t>
   </si>
   <si>
-    <t>Geógrafa</t>
-  </si>
-  <si>
     <t>COM-IND</t>
   </si>
   <si>
@@ -1055,9 +977,6 @@
     <t>Empresaria</t>
   </si>
   <si>
-    <t>#D7 - Valparaíso</t>
-  </si>
-  <si>
     <t>ZN63</t>
   </si>
   <si>
@@ -1139,9 +1058,6 @@
     <t>Tania Isabel Madriaga Flores</t>
   </si>
   <si>
-    <t>Socióloga</t>
-  </si>
-  <si>
     <t>XQ24</t>
   </si>
   <si>
@@ -1157,9 +1073,6 @@
     <t>Maria Elisa Quinteros Caceres</t>
   </si>
   <si>
-    <t>Odontóloga</t>
-  </si>
-  <si>
     <t>Asamblea Popular Por La Dignidad (D17)</t>
   </si>
   <si>
@@ -1169,9 +1082,6 @@
     <t>Cristina Ines Dorador Ortiz</t>
   </si>
   <si>
-    <t>Científica</t>
-  </si>
-  <si>
     <t>Movimiento Independientes Del Norte (D3)</t>
   </si>
   <si>
@@ -1181,9 +1091,6 @@
     <t>Giovanna Jazmin Grandon Caro</t>
   </si>
   <si>
-    <t>Asistente de Párvulos y Transportista Escolar</t>
-  </si>
-  <si>
     <t>La Lista Del Pueblo Distrito 12 (D12)</t>
   </si>
   <si>
@@ -1229,9 +1136,6 @@
     <t>Alondra Carrillo Vidal</t>
   </si>
   <si>
-    <t>Psicólogo</t>
-  </si>
-  <si>
     <t>Voces Constituyentes (D12)</t>
   </si>
   <si>
@@ -1241,9 +1145,6 @@
     <t>Tomas Laibe Saez</t>
   </si>
   <si>
-    <t>Cientista Político</t>
-  </si>
-  <si>
     <t>YQ25</t>
   </si>
   <si>
@@ -1412,9 +1313,6 @@
     <t>Teresa Marinovic Vial</t>
   </si>
   <si>
-    <t>Licenciada en Filosofía</t>
-  </si>
-  <si>
     <t>Rocio Cantuarias Rubio</t>
   </si>
   <si>
@@ -1506,6 +1404,108 @@
   </si>
   <si>
     <t>Jaime Andres Bassa Mercado</t>
+  </si>
+  <si>
+    <t>eleccion</t>
+  </si>
+  <si>
+    <t>eleccion_tipo</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>profesion</t>
+  </si>
+  <si>
+    <t>Sociologo</t>
+  </si>
+  <si>
+    <t>#D4 - Copiapo</t>
+  </si>
+  <si>
+    <t>#D20 - Concepcion</t>
+  </si>
+  <si>
+    <t>Teologo</t>
+  </si>
+  <si>
+    <t>Biologo</t>
+  </si>
+  <si>
+    <t>Geografa</t>
+  </si>
+  <si>
+    <t>Sociologa</t>
+  </si>
+  <si>
+    <t>Odontologa</t>
+  </si>
+  <si>
+    <t>Psicologo</t>
+  </si>
+  <si>
+    <t>Valparaiso</t>
+  </si>
+  <si>
+    <t>Los Rios</t>
+  </si>
+  <si>
+    <t>Araucania</t>
+  </si>
+  <si>
+    <t>Bio-Bio</t>
+  </si>
+  <si>
+    <t>#D7 - Valparaiso</t>
+  </si>
+  <si>
+    <t>Cientifica</t>
+  </si>
+  <si>
+    <t>Cientista Politico</t>
+  </si>
+  <si>
+    <t>Licenciada en Filosofia</t>
+  </si>
+  <si>
+    <t>Tarapaca</t>
+  </si>
+  <si>
+    <t>Mecanico</t>
+  </si>
+  <si>
+    <t>#D21 - Los angeles</t>
+  </si>
+  <si>
+    <t>#D19 - Chillan</t>
+  </si>
+  <si>
+    <t>Asistente de Parvulos y Transportista Escolar</t>
+  </si>
+  <si>
+    <t>#D6 - Quilpue</t>
+  </si>
+  <si>
+    <t>Aysen</t>
+  </si>
+  <si>
+    <t>Medico</t>
+  </si>
+  <si>
+    <t>numero_papeleta</t>
+  </si>
+  <si>
+    <t>#D8 - Maipu</t>
+  </si>
+  <si>
+    <t>Musico</t>
+  </si>
+  <si>
+    <t>Administrado Publico</t>
+  </si>
+  <si>
+    <t>Ingeniera en Administracion Publica</t>
   </si>
 </sst>
 </file>
@@ -1566,10 +1566,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1892,7 +1888,7 @@
   <dimension ref="A1:AZ156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1902,157 +1898,157 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>456</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.2">
@@ -2060,13 +2056,13 @@
         <v>1288</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>477</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2090,7 +2086,7 @@
         <v>7.2823944687843323</v>
       </c>
       <c r="N2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -2099,10 +2095,10 @@
         <v>45</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -2200,13 +2196,13 @@
         <v>1323</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -2230,7 +2226,7 @@
         <v>5.7494507730007172</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -2239,13 +2235,13 @@
         <v>67</v>
       </c>
       <c r="Q3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -2343,13 +2339,13 @@
         <v>1325</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -2373,7 +2369,7 @@
         <v>4.6142078191041946</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -2382,10 +2378,10 @@
         <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="S4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U4">
         <v>0</v>
@@ -2483,13 +2479,13 @@
         <v>1358</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="E5">
         <v>9.5</v>
@@ -2513,7 +2509,7 @@
         <v>7.2854228317737579</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -2522,10 +2518,10 @@
         <v>29</v>
       </c>
       <c r="Q5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U5">
         <v>0</v>
@@ -2623,25 +2619,25 @@
         <v>698</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>5.5</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2659,7 +2655,7 @@
         <v>7.5151804089546204</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -2668,16 +2664,16 @@
         <v>37</v>
       </c>
       <c r="Q6" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="R6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S6" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -2769,25 +2765,25 @@
         <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2805,7 +2801,7 @@
         <v>1.1141723394393921</v>
       </c>
       <c r="N7" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -2814,16 +2810,16 @@
         <v>64</v>
       </c>
       <c r="Q7" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R7" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T7" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U7">
         <v>0</v>
@@ -2927,25 +2923,25 @@
         <v>1061</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="E8">
         <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G8">
         <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -2963,7 +2959,7 @@
         <v>4.9170699529349804</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -2972,16 +2968,16 @@
         <v>34</v>
       </c>
       <c r="Q8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T8" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -3085,25 +3081,25 @@
         <v>697</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>5.5</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G9">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3121,7 +3117,7 @@
         <v>6.0655823349952698</v>
       </c>
       <c r="N9" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="O9">
         <v>1</v>
@@ -3130,16 +3126,16 @@
         <v>30</v>
       </c>
       <c r="Q9" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="S9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -3243,25 +3239,25 @@
         <v>734</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>5.5</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G10">
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -3279,7 +3275,7 @@
         <v>3.550037145614624</v>
       </c>
       <c r="N10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="O10">
         <v>1</v>
@@ -3288,16 +3284,16 @@
         <v>36</v>
       </c>
       <c r="Q10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R10" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="S10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -3401,25 +3397,25 @@
         <v>711</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>5.5</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G11">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3437,7 +3433,7 @@
         <v>7.6560232043266296</v>
       </c>
       <c r="N11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -3446,16 +3442,16 @@
         <v>52</v>
       </c>
       <c r="Q11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="R11" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S11" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -3559,19 +3555,19 @@
         <v>457</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>5.5</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G12">
         <v>9</v>
@@ -3595,7 +3591,7 @@
         <v>6.8825508654117584</v>
       </c>
       <c r="N12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -3604,16 +3600,16 @@
         <v>41</v>
       </c>
       <c r="Q12" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="S12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T12" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -3717,25 +3713,25 @@
         <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>477</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G13">
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3753,7 +3749,7 @@
         <v>6.5638454258441934</v>
       </c>
       <c r="N13" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -3762,16 +3758,16 @@
         <v>59</v>
       </c>
       <c r="Q13" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="U13">
         <v>1</v>
@@ -3875,25 +3871,25 @@
         <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3911,7 +3907,7 @@
         <v>6.4323769509792328</v>
       </c>
       <c r="N14" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -3920,16 +3916,16 @@
         <v>55</v>
       </c>
       <c r="Q14" t="s">
-        <v>114</v>
+        <v>460</v>
       </c>
       <c r="R14" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S14" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T14" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="U14">
         <v>1</v>
@@ -4033,25 +4029,25 @@
         <v>885</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E15">
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G15">
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -4069,7 +4065,7 @@
         <v>5.9785187244415283</v>
       </c>
       <c r="N15" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="O15">
         <v>1</v>
@@ -4078,16 +4074,16 @@
         <v>30</v>
       </c>
       <c r="Q15" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R15" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="S15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U15">
         <v>0</v>
@@ -4191,25 +4187,25 @@
         <v>802</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E16">
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G16">
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -4227,7 +4223,7 @@
         <v>6.2840723991394043</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -4236,16 +4232,16 @@
         <v>33</v>
       </c>
       <c r="Q16" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S16" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T16" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -4349,25 +4345,25 @@
         <v>793</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E17">
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G17">
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -4385,7 +4381,7 @@
         <v>2.703977227210999</v>
       </c>
       <c r="N17" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="O17">
         <v>1</v>
@@ -4394,16 +4390,16 @@
         <v>58</v>
       </c>
       <c r="Q17" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R17" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S17" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T17" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -4507,25 +4503,25 @@
         <v>138</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E18">
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -4543,7 +4539,7 @@
         <v>0.19295305013656619</v>
       </c>
       <c r="N18" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -4552,16 +4548,16 @@
         <v>36</v>
       </c>
       <c r="Q18" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="R18" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S18" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T18" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="U18">
         <v>1</v>
@@ -4665,25 +4661,25 @@
         <v>89</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G19">
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4701,7 +4697,7 @@
         <v>7.7132415771484384</v>
       </c>
       <c r="N19" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -4710,16 +4706,16 @@
         <v>49</v>
       </c>
       <c r="Q19" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S19" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T19" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4823,25 +4819,25 @@
         <v>762</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>6</v>
       </c>
       <c r="F20" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G20">
         <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -4859,7 +4855,7 @@
         <v>5.8555983752012253</v>
       </c>
       <c r="N20" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="O20">
         <v>1</v>
@@ -4868,13 +4864,13 @@
         <v>41</v>
       </c>
       <c r="R20" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="S20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T20" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U20">
         <v>0</v>
@@ -4978,25 +4974,25 @@
         <v>402</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>5.5</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G21">
         <v>9</v>
       </c>
       <c r="H21" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -5014,7 +5010,7 @@
         <v>7.1086983382701874</v>
       </c>
       <c r="N21" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="O21">
         <v>1</v>
@@ -5023,16 +5019,16 @@
         <v>43</v>
       </c>
       <c r="Q21" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="R21" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="S21" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T21" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U21">
         <v>0</v>
@@ -5136,25 +5132,25 @@
         <v>852</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E22">
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G22">
         <v>17</v>
       </c>
       <c r="H22" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5172,7 +5168,7 @@
         <v>6.3275414705276489</v>
       </c>
       <c r="N22" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="O22">
         <v>1</v>
@@ -5181,16 +5177,16 @@
         <v>47</v>
       </c>
       <c r="Q22" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="R22" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S22" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T22" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -5294,25 +5290,25 @@
         <v>388</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>5.5</v>
       </c>
       <c r="F23" t="s">
-        <v>151</v>
+        <v>486</v>
       </c>
       <c r="G23">
         <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -5330,7 +5326,7 @@
         <v>8.1058654189109802</v>
       </c>
       <c r="N23" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="O23">
         <v>1</v>
@@ -5339,16 +5335,16 @@
         <v>63</v>
       </c>
       <c r="Q23" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R23" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="S23" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T23" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U23">
         <v>0</v>
@@ -5452,25 +5448,25 @@
         <v>972</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E24">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="G24">
         <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5488,7 +5484,7 @@
         <v>4.0864124894142151</v>
       </c>
       <c r="N24" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="O24">
         <v>1</v>
@@ -5497,16 +5493,16 @@
         <v>51</v>
       </c>
       <c r="Q24" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="R24" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="S24" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T24" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U24">
         <v>0</v>
@@ -5610,25 +5606,25 @@
         <v>195</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E25">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="G25">
         <v>6</v>
       </c>
       <c r="H25" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -5646,7 +5642,7 @@
         <v>7.321273535490036</v>
       </c>
       <c r="N25" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -5655,16 +5651,16 @@
         <v>28</v>
       </c>
       <c r="Q25" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R25" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="S25" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T25" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U25">
         <v>0</v>
@@ -5768,25 +5764,25 @@
         <v>258</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E26">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="G26">
         <v>6</v>
       </c>
       <c r="H26" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -5804,7 +5800,7 @@
         <v>5.1480619050562382</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -5813,16 +5809,16 @@
         <v>52</v>
       </c>
       <c r="Q26" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="R26" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="S26" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T26" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U26">
         <v>0</v>
@@ -5926,13 +5922,13 @@
         <v>1299</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -5956,7 +5952,7 @@
         <v>5.0923640187829733</v>
       </c>
       <c r="N27" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -5965,10 +5961,10 @@
         <v>48</v>
       </c>
       <c r="Q27" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="S27" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U27">
         <v>0</v>
@@ -6066,25 +6062,25 @@
         <v>1168</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E28">
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G28">
         <v>25</v>
       </c>
       <c r="H28" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -6102,7 +6098,7 @@
         <v>2.3986014723777771</v>
       </c>
       <c r="N28" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -6111,16 +6107,16 @@
         <v>58</v>
       </c>
       <c r="Q28" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="R28" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S28" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T28" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="U28">
         <v>1</v>
@@ -6224,25 +6220,25 @@
         <v>1197</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E29">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G29">
         <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -6260,7 +6256,7 @@
         <v>2.136183083057404</v>
       </c>
       <c r="N29" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -6269,16 +6265,16 @@
         <v>56</v>
       </c>
       <c r="Q29" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S29" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T29" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="U29">
         <v>1</v>
@@ -6382,25 +6378,25 @@
         <v>757</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E30">
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G30">
         <v>15</v>
       </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -6418,7 +6414,7 @@
         <v>0.83893418312072754</v>
       </c>
       <c r="N30" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -6427,16 +6423,16 @@
         <v>32</v>
       </c>
       <c r="Q30" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S30" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T30" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="U30">
         <v>1</v>
@@ -6540,25 +6536,25 @@
         <v>856</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E31">
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G31">
         <v>17</v>
       </c>
       <c r="H31" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -6576,7 +6572,7 @@
         <v>7.3284818232059479</v>
       </c>
       <c r="N31" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="O31">
         <v>1</v>
@@ -6585,16 +6581,16 @@
         <v>46</v>
       </c>
       <c r="Q31" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="R31" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="S31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T31" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U31">
         <v>0</v>
@@ -6698,25 +6694,25 @@
         <v>196</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E32">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="G32">
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -6734,7 +6730,7 @@
         <v>6.1184695363044739</v>
       </c>
       <c r="N32" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="O32">
         <v>0</v>
@@ -6743,16 +6739,16 @@
         <v>32</v>
       </c>
       <c r="Q32" t="s">
-        <v>185</v>
+        <v>478</v>
       </c>
       <c r="R32" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="S32" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T32" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U32">
         <v>0</v>
@@ -6856,13 +6852,13 @@
         <v>1311</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -6886,7 +6882,7 @@
         <v>7.0926256477832794</v>
       </c>
       <c r="N33" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="O33">
         <v>1</v>
@@ -6895,13 +6891,13 @@
         <v>53</v>
       </c>
       <c r="Q33" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="S33" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T33" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="U33">
         <v>0</v>
@@ -6999,13 +6995,13 @@
         <v>1369</v>
       </c>
       <c r="B34" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E34">
         <v>12</v>
@@ -7029,7 +7025,7 @@
         <v>4.7674781642854214</v>
       </c>
       <c r="N34" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="O34">
         <v>1</v>
@@ -7038,10 +7034,10 @@
         <v>53</v>
       </c>
       <c r="Q34" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="S34" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U34">
         <v>0</v>
@@ -7139,13 +7135,13 @@
         <v>1364</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E35">
         <v>10</v>
@@ -7169,7 +7165,7 @@
         <v>6.7758673429489136</v>
       </c>
       <c r="N35" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="O35">
         <v>1</v>
@@ -7178,10 +7174,10 @@
         <v>41</v>
       </c>
       <c r="Q35" t="s">
-        <v>192</v>
+        <v>487</v>
       </c>
       <c r="S35" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U35">
         <v>0</v>
@@ -7279,13 +7275,13 @@
         <v>1296</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>477</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -7309,7 +7305,7 @@
         <v>6.2558478116989136</v>
       </c>
       <c r="N36" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="O36">
         <v>1</v>
@@ -7318,13 +7314,13 @@
         <v>33</v>
       </c>
       <c r="Q36" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R36" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="S36" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U36">
         <v>0</v>
@@ -7422,25 +7418,25 @@
         <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E37">
         <v>0.5</v>
       </c>
       <c r="F37" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I37">
         <v>1</v>
@@ -7458,7 +7454,7 @@
         <v>6.7816855013370514</v>
       </c>
       <c r="N37" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="O37">
         <v>1</v>
@@ -7467,16 +7463,16 @@
         <v>52</v>
       </c>
       <c r="Q37" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="R37" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S37" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T37" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7580,25 +7576,25 @@
         <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>53</v>
+        <v>477</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G38">
         <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="I38">
         <v>1</v>
@@ -7616,7 +7612,7 @@
         <v>5.0851186644285917</v>
       </c>
       <c r="N38" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="O38">
         <v>0</v>
@@ -7625,16 +7621,16 @@
         <v>49</v>
       </c>
       <c r="Q38" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="R38" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S38" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T38" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -7738,25 +7734,25 @@
         <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E39">
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G39">
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -7774,7 +7770,7 @@
         <v>6.3484959304332733</v>
       </c>
       <c r="N39" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="O39">
         <v>1</v>
@@ -7783,16 +7779,16 @@
         <v>33</v>
       </c>
       <c r="Q39" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R39" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="S39" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T39" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U39">
         <v>0</v>
@@ -7896,25 +7892,25 @@
         <v>360</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E40">
         <v>5.5</v>
       </c>
       <c r="F40" t="s">
-        <v>151</v>
+        <v>486</v>
       </c>
       <c r="G40">
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -7932,7 +7928,7 @@
         <v>5.9155967086553574</v>
       </c>
       <c r="N40" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="O40">
         <v>1</v>
@@ -7941,16 +7937,16 @@
         <v>36</v>
       </c>
       <c r="Q40" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="R40" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S40" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T40" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="U40">
         <v>0</v>
@@ -8054,25 +8050,25 @@
         <v>1239</v>
       </c>
       <c r="B41" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>210</v>
+        <v>483</v>
       </c>
       <c r="E41">
         <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G41">
         <v>27</v>
       </c>
       <c r="H41" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -8090,7 +8086,7 @@
         <v>1.81071013212204</v>
       </c>
       <c r="N41" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="O41">
         <v>1</v>
@@ -8099,16 +8095,16 @@
         <v>30</v>
       </c>
       <c r="Q41" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R41" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S41" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T41" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="U41">
         <v>0</v>
@@ -8212,25 +8208,25 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E42">
         <v>0.5</v>
       </c>
       <c r="F42" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -8248,7 +8244,7 @@
         <v>7.5347471237182617</v>
       </c>
       <c r="N42" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="O42">
         <v>1</v>
@@ -8257,16 +8253,16 @@
         <v>46</v>
       </c>
       <c r="Q42" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="R42" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S42" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T42" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="U42">
         <v>0</v>
@@ -8370,25 +8366,25 @@
         <v>1019</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E43">
         <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="G43">
         <v>21</v>
       </c>
       <c r="H43" t="s">
-        <v>219</v>
+        <v>200</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -8406,7 +8402,7 @@
         <v>3.6564004421234131</v>
       </c>
       <c r="N43" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -8415,16 +8411,16 @@
         <v>32</v>
       </c>
       <c r="Q43" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="R43" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="S43" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T43" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U43">
         <v>0</v>
@@ -8528,25 +8524,25 @@
         <v>1108</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="E44">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G44">
         <v>23</v>
       </c>
       <c r="H44" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -8564,7 +8560,7 @@
         <v>3.126444965600967</v>
       </c>
       <c r="N44" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="O44">
         <v>1</v>
@@ -8573,16 +8569,16 @@
         <v>47</v>
       </c>
       <c r="Q44" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R44" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="S44" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T44" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U44">
         <v>0</v>
@@ -8686,25 +8682,25 @@
         <v>389</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>5.5</v>
       </c>
       <c r="F45" t="s">
-        <v>151</v>
+        <v>486</v>
       </c>
       <c r="G45">
         <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -8722,7 +8718,7 @@
         <v>7.0778317749500266</v>
       </c>
       <c r="N45" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="O45">
         <v>0</v>
@@ -8731,16 +8727,16 @@
         <v>31</v>
       </c>
       <c r="Q45" t="s">
-        <v>227</v>
+        <v>488</v>
       </c>
       <c r="R45" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="S45" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T45" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U45">
         <v>0</v>
@@ -8844,25 +8840,25 @@
         <v>512</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E46">
         <v>5.5</v>
       </c>
       <c r="F46" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G46">
         <v>10</v>
       </c>
       <c r="H46" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -8880,7 +8876,7 @@
         <v>7.1405445039272308</v>
       </c>
       <c r="N46" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="O46">
         <v>0</v>
@@ -8889,16 +8885,16 @@
         <v>37</v>
       </c>
       <c r="Q46" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R46" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="S46" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T46" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -9002,25 +8998,25 @@
         <v>220</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="G47">
         <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -9038,7 +9034,7 @@
         <v>1.811933815479279</v>
       </c>
       <c r="N47" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="O47">
         <v>0</v>
@@ -9047,16 +9043,16 @@
         <v>41</v>
       </c>
       <c r="Q47" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R47" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S47" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T47" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="U47">
         <v>0</v>
@@ -9160,25 +9156,25 @@
         <v>868</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E48">
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G48">
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -9196,7 +9192,7 @@
         <v>4.9275116343051204</v>
       </c>
       <c r="N48" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="O48">
         <v>1</v>
@@ -9205,16 +9201,16 @@
         <v>34</v>
       </c>
       <c r="Q48" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R48" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S48" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T48" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="U48">
         <v>1</v>
@@ -9318,25 +9314,25 @@
         <v>640</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E49">
         <v>5.5</v>
       </c>
       <c r="F49" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G49">
         <v>12</v>
       </c>
       <c r="H49" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -9354,7 +9350,7 @@
         <v>4.511919692158699</v>
       </c>
       <c r="N49" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="O49">
         <v>0</v>
@@ -9363,16 +9359,16 @@
         <v>25</v>
       </c>
       <c r="Q49" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="R49" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="S49" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T49" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -9476,25 +9472,25 @@
         <v>949</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E50">
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="G50">
         <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -9512,7 +9508,7 @@
         <v>5.4827041178941727</v>
       </c>
       <c r="N50" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="O50">
         <v>0</v>
@@ -9521,16 +9517,16 @@
         <v>50</v>
       </c>
       <c r="Q50" t="s">
-        <v>243</v>
+        <v>463</v>
       </c>
       <c r="R50" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S50" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T50" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="U50">
         <v>1</v>
@@ -9634,13 +9630,13 @@
         <v>1373</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E51">
         <v>12</v>
@@ -9664,7 +9660,7 @@
         <v>6.9632276892662048</v>
       </c>
       <c r="N51" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="O51">
         <v>1</v>
@@ -9673,10 +9669,10 @@
         <v>51</v>
       </c>
       <c r="Q51" t="s">
-        <v>245</v>
+        <v>489</v>
       </c>
       <c r="S51" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U51">
         <v>0</v>
@@ -9774,25 +9770,25 @@
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>53</v>
+        <v>477</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G52">
         <v>2</v>
       </c>
       <c r="H52" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -9810,7 +9806,7 @@
         <v>4.6500229090452194</v>
       </c>
       <c r="N52" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="O52">
         <v>1</v>
@@ -9819,16 +9815,16 @@
         <v>60</v>
       </c>
       <c r="Q52" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R52" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="S52" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T52" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U52">
         <v>0</v>
@@ -9932,25 +9928,25 @@
         <v>185</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E53">
         <v>4</v>
       </c>
       <c r="F53" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G53">
         <v>5</v>
       </c>
       <c r="H53" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -9968,7 +9964,7 @@
         <v>1.943261921405792</v>
       </c>
       <c r="N53" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="O53">
         <v>0</v>
@@ -9977,16 +9973,16 @@
         <v>75</v>
       </c>
       <c r="Q53" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="R53" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S53" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T53" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="U53">
         <v>0</v>
@@ -10090,25 +10086,25 @@
         <v>981</v>
       </c>
       <c r="B54" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E54">
         <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="G54">
         <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -10126,7 +10122,7 @@
         <v>4.9818144692108044</v>
       </c>
       <c r="N54" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="O54">
         <v>0</v>
@@ -10135,16 +10131,16 @@
         <v>30</v>
       </c>
       <c r="Q54" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="R54" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="S54" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T54" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U54">
         <v>0</v>
@@ -10248,25 +10244,25 @@
         <v>853</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E55">
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G55">
         <v>17</v>
       </c>
       <c r="H55" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -10284,7 +10280,7 @@
         <v>6.1223101615905762</v>
       </c>
       <c r="N55" t="s">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="O55">
         <v>0</v>
@@ -10293,16 +10289,16 @@
         <v>74</v>
       </c>
       <c r="Q55" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R55" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S55" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T55" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="U55">
         <v>0</v>
@@ -10406,25 +10402,25 @@
         <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E56">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="G56">
         <v>6</v>
       </c>
       <c r="H56" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -10442,7 +10438,7 @@
         <v>4.338407889008522</v>
       </c>
       <c r="N56" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="O56">
         <v>1</v>
@@ -10451,16 +10447,16 @@
         <v>31</v>
       </c>
       <c r="Q56" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="R56" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="S56" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T56" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U56">
         <v>0</v>
@@ -10564,25 +10560,25 @@
         <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E57">
         <v>0.5</v>
       </c>
       <c r="F57" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -10600,7 +10596,7 @@
         <v>4.3428486585617074</v>
       </c>
       <c r="N57" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -10609,16 +10605,16 @@
         <v>54</v>
       </c>
       <c r="Q57" t="s">
-        <v>262</v>
+        <v>464</v>
       </c>
       <c r="R57" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S57" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T57" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="U57">
         <v>0</v>
@@ -10722,25 +10718,25 @@
         <v>143</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E58">
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="G58">
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -10758,7 +10754,7 @@
         <v>6.5114480257034302</v>
       </c>
       <c r="N58" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="O58">
         <v>1</v>
@@ -10767,16 +10763,16 @@
         <v>36</v>
       </c>
       <c r="Q58" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R58" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S58" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T58" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="U58">
         <v>1</v>
@@ -10880,25 +10876,25 @@
         <v>1137</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="E59">
         <v>9.5</v>
       </c>
       <c r="F59" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G59">
         <v>24</v>
       </c>
       <c r="H59" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -10916,7 +10912,7 @@
         <v>3.0799424648284912</v>
       </c>
       <c r="N59" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="O59">
         <v>1</v>
@@ -10925,16 +10921,16 @@
         <v>54</v>
       </c>
       <c r="Q59" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="R59" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S59" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T59" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="U59">
         <v>1</v>
@@ -11038,25 +11034,25 @@
         <v>1190</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E60">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G60">
         <v>26</v>
       </c>
       <c r="H60" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="I60">
         <v>1</v>
@@ -11074,7 +11070,7 @@
         <v>8.1388717889785767</v>
       </c>
       <c r="N60" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="O60">
         <v>1</v>
@@ -11083,16 +11079,16 @@
         <v>29</v>
       </c>
       <c r="Q60" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="R60" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S60" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T60" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U60">
         <v>1</v>
@@ -11196,25 +11192,25 @@
         <v>406</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E61">
         <v>5.5</v>
       </c>
       <c r="F61" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G61">
         <v>9</v>
       </c>
       <c r="H61" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -11232,7 +11228,7 @@
         <v>5.5741867795586586</v>
       </c>
       <c r="N61" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="O61">
         <v>1</v>
@@ -11241,16 +11237,16 @@
         <v>35</v>
       </c>
       <c r="Q61" t="s">
-        <v>275</v>
+        <v>484</v>
       </c>
       <c r="R61" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="S61" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T61" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U61">
         <v>0</v>
@@ -11354,25 +11350,25 @@
         <v>630</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E62">
         <v>5.5</v>
       </c>
       <c r="F62" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G62">
         <v>12</v>
       </c>
       <c r="H62" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -11390,7 +11386,7 @@
         <v>0.68596363067626953</v>
       </c>
       <c r="N62" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="O62">
         <v>1</v>
@@ -11399,16 +11395,16 @@
         <v>50</v>
       </c>
       <c r="Q62" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="R62" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S62" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T62" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="U62">
         <v>0</v>
@@ -11512,25 +11508,25 @@
         <v>374</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E63">
         <v>5.5</v>
       </c>
       <c r="F63" t="s">
-        <v>151</v>
+        <v>486</v>
       </c>
       <c r="G63">
         <v>8</v>
       </c>
       <c r="H63" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="I63">
         <v>1</v>
@@ -11548,7 +11544,7 @@
         <v>0.79579830169677734</v>
       </c>
       <c r="N63" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -11557,16 +11553,16 @@
         <v>55</v>
       </c>
       <c r="Q63" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R63" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S63" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T63" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="U63">
         <v>0</v>
@@ -11670,13 +11666,13 @@
         <v>1284</v>
       </c>
       <c r="B64" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E64">
         <v>0.5</v>
@@ -11700,7 +11696,7 @@
         <v>5.0815775245428094</v>
       </c>
       <c r="N64" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -11709,10 +11705,10 @@
         <v>37</v>
       </c>
       <c r="Q64" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="S64" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U64">
         <v>0</v>
@@ -11810,25 +11806,25 @@
         <v>730</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E65">
         <v>5.5</v>
       </c>
       <c r="F65" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G65">
         <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="I65">
         <v>1</v>
@@ -11846,7 +11842,7 @@
         <v>6.0482723265886307</v>
       </c>
       <c r="N65" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -11855,16 +11851,16 @@
         <v>31</v>
       </c>
       <c r="Q65" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="R65" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="S65" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T65" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U65">
         <v>0</v>
@@ -11968,25 +11964,25 @@
         <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E66">
         <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G66">
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="I66">
         <v>1</v>
@@ -12004,7 +12000,7 @@
         <v>7.2271238267421722</v>
       </c>
       <c r="N66" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -12013,16 +12009,16 @@
         <v>30</v>
       </c>
       <c r="Q66" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R66" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="S66" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T66" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -12126,25 +12122,25 @@
         <v>1029</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="E67">
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="G67">
         <v>22</v>
       </c>
       <c r="H67" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -12162,7 +12158,7 @@
         <v>7.3217412829399109</v>
       </c>
       <c r="N67" t="s">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="O67">
         <v>1</v>
@@ -12171,16 +12167,16 @@
         <v>39</v>
       </c>
       <c r="Q67" t="s">
-        <v>289</v>
+        <v>265</v>
       </c>
       <c r="R67" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S67" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T67" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="U67">
         <v>0</v>
@@ -12284,13 +12280,13 @@
         <v>1346</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="E68">
         <v>9</v>
@@ -12314,7 +12310,7 @@
         <v>7.3116670548915863</v>
       </c>
       <c r="N68" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="O68">
         <v>1</v>
@@ -12323,10 +12319,10 @@
         <v>64</v>
       </c>
       <c r="Q68" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="S68" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U68">
         <v>0</v>
@@ -12424,25 +12420,25 @@
         <v>1184</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E69">
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G69">
         <v>26</v>
       </c>
       <c r="H69" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="I69">
         <v>1</v>
@@ -12460,7 +12456,7 @@
         <v>5.9923571348190308</v>
       </c>
       <c r="N69" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="O69">
         <v>1</v>
@@ -12469,16 +12465,16 @@
         <v>34</v>
       </c>
       <c r="Q69" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="R69" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="S69" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T69" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U69">
         <v>0</v>
@@ -12582,25 +12578,25 @@
         <v>1001</v>
       </c>
       <c r="B70" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E70">
         <v>8</v>
       </c>
       <c r="F70" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="G70">
         <v>21</v>
       </c>
       <c r="H70" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="I70">
         <v>1</v>
@@ -12618,7 +12614,7 @@
         <v>4.9123969860374928</v>
       </c>
       <c r="N70" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="O70">
         <v>1</v>
@@ -12627,16 +12623,16 @@
         <v>33</v>
       </c>
       <c r="Q70" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="R70" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S70" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T70" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="U70">
         <v>1</v>
@@ -12740,25 +12736,25 @@
         <v>895</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E71">
         <v>7.5</v>
       </c>
       <c r="F71" t="s">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="G71">
         <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="I71">
         <v>1</v>
@@ -12776,7 +12772,7 @@
         <v>5.9600505232810974</v>
       </c>
       <c r="N71" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
       <c r="O71">
         <v>0</v>
@@ -12785,16 +12781,16 @@
         <v>37</v>
       </c>
       <c r="Q71" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="R71" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="S71" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T71" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U71">
         <v>0</v>
@@ -12898,25 +12894,25 @@
         <v>1081</v>
       </c>
       <c r="B72" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="E72">
         <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G72">
         <v>23</v>
       </c>
       <c r="H72" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -12934,7 +12930,7 @@
         <v>4.1102137416601181</v>
       </c>
       <c r="N72" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
       <c r="O72">
         <v>0</v>
@@ -12943,16 +12939,16 @@
         <v>70</v>
       </c>
       <c r="Q72" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R72" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S72" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T72" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="U72">
         <v>1</v>
@@ -13056,25 +13052,25 @@
         <v>232</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E73">
         <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="G73">
         <v>6</v>
       </c>
       <c r="H73" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -13092,7 +13088,7 @@
         <v>4.4876356422901154</v>
       </c>
       <c r="N73" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
       <c r="O73">
         <v>1</v>
@@ -13101,16 +13097,16 @@
         <v>36</v>
       </c>
       <c r="Q73" t="s">
-        <v>308</v>
+        <v>465</v>
       </c>
       <c r="R73" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S73" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T73" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="U73">
         <v>0</v>
@@ -13214,25 +13210,25 @@
         <v>677</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E74">
         <v>5.5</v>
       </c>
       <c r="F74" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G74">
         <v>13</v>
       </c>
       <c r="H74" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -13250,7 +13246,7 @@
         <v>3.653674721717834</v>
       </c>
       <c r="N74" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
       <c r="O74">
         <v>1</v>
@@ -13259,16 +13255,16 @@
         <v>65</v>
       </c>
       <c r="Q74" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="R74" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S74" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T74" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="U74">
         <v>1</v>
@@ -13372,25 +13368,25 @@
         <v>1140</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="E75">
         <v>9.5</v>
       </c>
       <c r="F75" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G75">
         <v>24</v>
       </c>
       <c r="H75" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="I75">
         <v>1</v>
@@ -13408,7 +13404,7 @@
         <v>0.78760981559753418</v>
       </c>
       <c r="N75" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="O75">
         <v>0</v>
@@ -13417,16 +13413,16 @@
         <v>33</v>
       </c>
       <c r="Q75" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="R75" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S75" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T75" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="U75">
         <v>1</v>
@@ -13530,25 +13526,25 @@
         <v>900</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E76">
         <v>7.5</v>
       </c>
       <c r="F76" t="s">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="G76">
         <v>19</v>
       </c>
       <c r="H76" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="I76">
         <v>1</v>
@@ -13566,7 +13562,7 @@
         <v>7.6536804437637329</v>
       </c>
       <c r="N76" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="O76">
         <v>1</v>
@@ -13575,16 +13571,16 @@
         <v>67</v>
       </c>
       <c r="Q76" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="R76" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S76" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T76" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U76">
         <v>1</v>
@@ -13688,25 +13684,25 @@
         <v>805</v>
       </c>
       <c r="B77" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E77">
         <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G77">
         <v>16</v>
       </c>
       <c r="H77" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -13724,7 +13720,7 @@
         <v>4.6412223950028419</v>
       </c>
       <c r="N77" t="s">
-        <v>319</v>
+        <v>293</v>
       </c>
       <c r="O77">
         <v>1</v>
@@ -13733,16 +13729,16 @@
         <v>58</v>
       </c>
       <c r="Q77" t="s">
-        <v>320</v>
+        <v>294</v>
       </c>
       <c r="R77" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="S77" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T77" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U77">
         <v>0</v>
@@ -13846,25 +13842,25 @@
         <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E78">
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="G78">
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="I78">
         <v>1</v>
@@ -13882,7 +13878,7 @@
         <v>3.199563324451447</v>
       </c>
       <c r="N78" t="s">
-        <v>323</v>
+        <v>297</v>
       </c>
       <c r="O78">
         <v>0</v>
@@ -13891,16 +13887,16 @@
         <v>24</v>
       </c>
       <c r="Q78" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="R78" t="s">
-        <v>325</v>
+        <v>299</v>
       </c>
       <c r="S78" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T78" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U78">
         <v>0</v>
@@ -14004,25 +14000,25 @@
         <v>180</v>
       </c>
       <c r="B79" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E79">
         <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G79">
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -14040,7 +14036,7 @@
         <v>5.4315612465143204</v>
       </c>
       <c r="N79" t="s">
-        <v>327</v>
+        <v>301</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -14049,16 +14045,16 @@
         <v>43</v>
       </c>
       <c r="Q79" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R79" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S79" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T79" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="U79">
         <v>1</v>
@@ -14162,25 +14158,25 @@
         <v>611</v>
       </c>
       <c r="B80" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E80">
         <v>5.5</v>
       </c>
       <c r="F80" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G80">
         <v>12</v>
       </c>
       <c r="H80" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -14198,7 +14194,7 @@
         <v>4.383140467107296</v>
       </c>
       <c r="N80" t="s">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="O80">
         <v>0</v>
@@ -14207,16 +14203,16 @@
         <v>33</v>
       </c>
       <c r="Q80" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R80" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S80" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T80" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="U80">
         <v>0</v>
@@ -14320,25 +14316,25 @@
         <v>234</v>
       </c>
       <c r="B81" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C81">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E81">
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="G81">
         <v>6</v>
       </c>
       <c r="H81" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -14356,7 +14352,7 @@
         <v>2.0256629586219792</v>
       </c>
       <c r="N81" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="O81">
         <v>1</v>
@@ -14365,16 +14361,16 @@
         <v>40</v>
       </c>
       <c r="Q81" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R81" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S81" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T81" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="U81">
         <v>0</v>
@@ -14478,25 +14474,25 @@
         <v>1038</v>
       </c>
       <c r="B82" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="E82">
         <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="G82">
         <v>22</v>
       </c>
       <c r="H82" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -14514,7 +14510,7 @@
         <v>5.3396905213594437</v>
       </c>
       <c r="N82" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="O82">
         <v>0</v>
@@ -14523,16 +14519,16 @@
         <v>44</v>
       </c>
       <c r="Q82" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R82" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S82" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T82" t="s">
-        <v>335</v>
+        <v>309</v>
       </c>
       <c r="U82">
         <v>1</v>
@@ -14636,25 +14632,25 @@
         <v>1073</v>
       </c>
       <c r="B83" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="E83">
         <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G83">
         <v>23</v>
       </c>
       <c r="H83" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -14672,7 +14668,7 @@
         <v>4.814524594694376</v>
       </c>
       <c r="N83" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="O83">
         <v>1</v>
@@ -14681,16 +14677,16 @@
         <v>60</v>
       </c>
       <c r="Q83" t="s">
-        <v>338</v>
+        <v>312</v>
       </c>
       <c r="R83" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S83" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T83" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="U83">
         <v>0</v>
@@ -14794,25 +14790,25 @@
         <v>328</v>
       </c>
       <c r="B84" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E84">
         <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="G84">
         <v>7</v>
       </c>
       <c r="H84" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -14830,7 +14826,7 @@
         <v>6.1657680571079254</v>
       </c>
       <c r="N84" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="O84">
         <v>1</v>
@@ -14839,16 +14835,16 @@
         <v>29</v>
       </c>
       <c r="Q84" t="s">
-        <v>298</v>
+        <v>274</v>
       </c>
       <c r="R84" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="S84" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T84" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U84">
         <v>0</v>
@@ -14952,25 +14948,25 @@
         <v>373</v>
       </c>
       <c r="B85" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E85">
         <v>5.5</v>
       </c>
       <c r="F85" t="s">
-        <v>151</v>
+        <v>486</v>
       </c>
       <c r="G85">
         <v>8</v>
       </c>
       <c r="H85" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -14988,7 +14984,7 @@
         <v>0.85978388786315918</v>
       </c>
       <c r="N85" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="O85">
         <v>1</v>
@@ -14997,16 +14993,16 @@
         <v>38</v>
       </c>
       <c r="Q85" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="R85" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S85" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T85" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="U85">
         <v>1</v>
@@ -15110,25 +15106,25 @@
         <v>1158</v>
       </c>
       <c r="B86" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E86">
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G86">
         <v>25</v>
       </c>
       <c r="H86" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -15146,7 +15142,7 @@
         <v>7.5305497646331787</v>
       </c>
       <c r="N86" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="O86">
         <v>1</v>
@@ -15155,16 +15151,16 @@
         <v>65</v>
       </c>
       <c r="Q86" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R86" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S86" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T86" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="U86">
         <v>0</v>
@@ -15268,13 +15264,13 @@
         <v>1324</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C87">
         <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E87">
         <v>4</v>
@@ -15298,7 +15294,7 @@
         <v>7.2863346338272086</v>
       </c>
       <c r="N87" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="O87">
         <v>1</v>
@@ -15307,10 +15303,10 @@
         <v>41</v>
       </c>
       <c r="Q87" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="S87" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U87">
         <v>0</v>
@@ -15408,25 +15404,25 @@
         <v>1246</v>
       </c>
       <c r="B88" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E88">
         <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="G88">
         <v>28</v>
       </c>
       <c r="H88" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -15444,7 +15440,7 @@
         <v>3.918483704328537</v>
       </c>
       <c r="N88" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="O88">
         <v>0</v>
@@ -15453,16 +15449,16 @@
         <v>49</v>
       </c>
       <c r="Q88" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="R88" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="S88" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T88" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U88">
         <v>0</v>
@@ -15566,25 +15562,25 @@
         <v>888</v>
       </c>
       <c r="B89" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E89">
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G89">
         <v>18</v>
       </c>
       <c r="H89" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -15602,7 +15598,7 @@
         <v>5.669022873044014</v>
       </c>
       <c r="N89" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="O89">
         <v>0</v>
@@ -15611,16 +15607,16 @@
         <v>65</v>
       </c>
       <c r="Q89" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="R89" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="S89" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T89" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U89">
         <v>0</v>
@@ -15724,13 +15720,13 @@
         <v>1340</v>
       </c>
       <c r="B90" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="E90">
         <v>9</v>
@@ -15754,7 +15750,7 @@
         <v>5.1193321496248254</v>
       </c>
       <c r="N90" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="O90">
         <v>1</v>
@@ -15763,13 +15759,13 @@
         <v>39</v>
       </c>
       <c r="Q90" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="S90" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="T90" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="U90">
         <v>0</v>
@@ -15867,25 +15863,25 @@
         <v>369</v>
       </c>
       <c r="B91" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E91">
         <v>5.5</v>
       </c>
       <c r="F91" t="s">
-        <v>151</v>
+        <v>486</v>
       </c>
       <c r="G91">
         <v>8</v>
       </c>
       <c r="H91" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -15903,7 +15899,7 @@
         <v>6.913764476776123</v>
       </c>
       <c r="N91" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="O91">
         <v>1</v>
@@ -15912,16 +15908,16 @@
         <v>21</v>
       </c>
       <c r="Q91" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="R91" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S91" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T91" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="U91">
         <v>1</v>
@@ -16025,13 +16021,13 @@
         <v>1333</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E92">
         <v>5.5</v>
@@ -16055,7 +16051,7 @@
         <v>4.2581275105476379</v>
       </c>
       <c r="N92" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="O92">
         <v>1</v>
@@ -16064,10 +16060,10 @@
         <v>58</v>
       </c>
       <c r="Q92" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="S92" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U92">
         <v>0</v>
@@ -16165,25 +16161,25 @@
         <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E93">
         <v>3</v>
       </c>
       <c r="F93" t="s">
-        <v>131</v>
+        <v>461</v>
       </c>
       <c r="G93">
         <v>4</v>
       </c>
       <c r="H93" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -16201,7 +16197,7 @@
         <v>6.3360925018787384</v>
       </c>
       <c r="N93" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="O93">
         <v>1</v>
@@ -16210,16 +16206,16 @@
         <v>35</v>
       </c>
       <c r="Q93" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="R93" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="S93" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T93" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U93">
         <v>0</v>
@@ -16323,25 +16319,25 @@
         <v>907</v>
       </c>
       <c r="B94" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E94">
         <v>7.5</v>
       </c>
       <c r="F94" t="s">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="G94">
         <v>19</v>
       </c>
       <c r="H94" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -16359,7 +16355,7 @@
         <v>4.5075000450015068</v>
       </c>
       <c r="N94" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="O94">
         <v>0</v>
@@ -16368,16 +16364,16 @@
         <v>48</v>
       </c>
       <c r="Q94" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R94" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S94" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T94" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
       <c r="U94">
         <v>1</v>
@@ -16481,25 +16477,25 @@
         <v>330</v>
       </c>
       <c r="B95" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E95">
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="G95">
         <v>7</v>
       </c>
       <c r="H95" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="I95">
         <v>1</v>
@@ -16517,7 +16513,7 @@
         <v>7.0324099063873291</v>
       </c>
       <c r="N95" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="O95">
         <v>1</v>
@@ -16526,16 +16522,16 @@
         <v>49</v>
       </c>
       <c r="Q95" t="s">
-        <v>367</v>
+        <v>466</v>
       </c>
       <c r="R95" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="S95" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T95" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U95">
         <v>0</v>
@@ -16639,25 +16635,25 @@
         <v>1013</v>
       </c>
       <c r="B96" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E96">
         <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="G96">
         <v>21</v>
       </c>
       <c r="H96" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="I96">
         <v>1</v>
@@ -16675,7 +16671,7 @@
         <v>4.9777079699561</v>
       </c>
       <c r="N96" t="s">
-        <v>369</v>
+        <v>341</v>
       </c>
       <c r="O96">
         <v>1</v>
@@ -16684,16 +16680,16 @@
         <v>41</v>
       </c>
       <c r="Q96" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R96" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S96" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T96" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="U96">
         <v>0</v>
@@ -16797,25 +16793,25 @@
         <v>1008</v>
       </c>
       <c r="B97" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E97">
         <v>8</v>
       </c>
       <c r="F97" t="s">
-        <v>218</v>
+        <v>479</v>
       </c>
       <c r="G97">
         <v>21</v>
       </c>
       <c r="H97" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -16833,7 +16829,7 @@
         <v>5.5413432046771049</v>
       </c>
       <c r="N97" t="s">
-        <v>370</v>
+        <v>342</v>
       </c>
       <c r="O97">
         <v>0</v>
@@ -16842,16 +16838,16 @@
         <v>67</v>
       </c>
       <c r="Q97" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R97" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S97" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T97" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="U97">
         <v>0</v>
@@ -16955,25 +16951,25 @@
         <v>815</v>
       </c>
       <c r="B98" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E98">
         <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G98">
         <v>17</v>
       </c>
       <c r="H98" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -16991,7 +16987,7 @@
         <v>4.4868474453687668</v>
       </c>
       <c r="N98" t="s">
-        <v>372</v>
+        <v>344</v>
       </c>
       <c r="O98">
         <v>1</v>
@@ -17000,16 +16996,16 @@
         <v>39</v>
       </c>
       <c r="Q98" t="s">
-        <v>373</v>
+        <v>467</v>
       </c>
       <c r="R98" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="S98" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T98" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U98">
         <v>0</v>
@@ -17113,25 +17109,25 @@
         <v>115</v>
       </c>
       <c r="B99" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E99">
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="G99">
         <v>3</v>
       </c>
       <c r="H99" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -17149,7 +17145,7 @@
         <v>4.1837874054908752</v>
       </c>
       <c r="N99" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="O99">
         <v>1</v>
@@ -17158,16 +17154,16 @@
         <v>41</v>
       </c>
       <c r="Q99" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
       <c r="R99" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
       <c r="S99" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T99" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U99">
         <v>0</v>
@@ -17271,25 +17267,25 @@
         <v>624</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C100">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E100">
         <v>5.5</v>
       </c>
       <c r="F100" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G100">
         <v>12</v>
       </c>
       <c r="H100" t="s">
-        <v>379</v>
+        <v>349</v>
       </c>
       <c r="I100">
         <v>1</v>
@@ -17307,7 +17303,7 @@
         <v>7.1755820512771606</v>
       </c>
       <c r="N100" t="s">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="O100">
         <v>1</v>
@@ -17316,16 +17312,16 @@
         <v>45</v>
       </c>
       <c r="Q100" t="s">
-        <v>381</v>
+        <v>481</v>
       </c>
       <c r="R100" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="S100" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T100" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U100">
         <v>0</v>
@@ -17429,25 +17425,25 @@
         <v>930</v>
       </c>
       <c r="B101" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C101">
         <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E101">
         <v>8</v>
       </c>
       <c r="F101" t="s">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="G101">
         <v>20</v>
       </c>
       <c r="H101" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -17465,7 +17461,7 @@
         <v>2.7191871404647832</v>
       </c>
       <c r="N101" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="O101">
         <v>1</v>
@@ -17474,16 +17470,16 @@
         <v>34</v>
       </c>
       <c r="Q101" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R101" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="S101" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T101" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U101">
         <v>0</v>
@@ -17587,25 +17583,25 @@
         <v>720</v>
       </c>
       <c r="B102" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E102">
         <v>5.5</v>
       </c>
       <c r="F102" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G102">
         <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -17623,7 +17619,7 @@
         <v>7.1049170196056366</v>
       </c>
       <c r="N102" t="s">
-        <v>386</v>
+        <v>355</v>
       </c>
       <c r="O102">
         <v>0</v>
@@ -17632,16 +17628,16 @@
         <v>34</v>
       </c>
       <c r="Q102" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R102" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S102" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T102" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
       <c r="U102">
         <v>0</v>
@@ -17745,25 +17741,25 @@
         <v>911</v>
       </c>
       <c r="B103" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C103">
         <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E103">
         <v>7.5</v>
       </c>
       <c r="F103" t="s">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="G103">
         <v>19</v>
       </c>
       <c r="H103" t="s">
-        <v>388</v>
+        <v>357</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -17781,7 +17777,7 @@
         <v>4.4117908924818039</v>
       </c>
       <c r="N103" t="s">
-        <v>389</v>
+        <v>358</v>
       </c>
       <c r="O103">
         <v>1</v>
@@ -17790,16 +17786,16 @@
         <v>40</v>
       </c>
       <c r="Q103" t="s">
-        <v>390</v>
+        <v>359</v>
       </c>
       <c r="R103" t="s">
-        <v>391</v>
+        <v>360</v>
       </c>
       <c r="S103" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T103" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U103">
         <v>0</v>
@@ -17903,25 +17899,25 @@
         <v>280</v>
       </c>
       <c r="B104" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C104">
         <v>1</v>
       </c>
       <c r="D104" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E104">
         <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="G104">
         <v>7</v>
       </c>
       <c r="H104" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -17939,7 +17935,7 @@
         <v>7.0534716546535492</v>
       </c>
       <c r="N104" t="s">
-        <v>393</v>
+        <v>362</v>
       </c>
       <c r="O104">
         <v>0</v>
@@ -17948,16 +17944,16 @@
         <v>81</v>
       </c>
       <c r="Q104" t="s">
-        <v>394</v>
+        <v>363</v>
       </c>
       <c r="R104" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S104" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T104" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="U104">
         <v>0</v>
@@ -18061,25 +18057,25 @@
         <v>595</v>
       </c>
       <c r="B105" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C105">
         <v>1</v>
       </c>
       <c r="D105" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E105">
         <v>5.5</v>
       </c>
       <c r="F105" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G105">
         <v>12</v>
       </c>
       <c r="H105" t="s">
-        <v>395</v>
+        <v>364</v>
       </c>
       <c r="I105">
         <v>1</v>
@@ -18097,7 +18093,7 @@
         <v>4.4804403185844421</v>
       </c>
       <c r="N105" t="s">
-        <v>396</v>
+        <v>365</v>
       </c>
       <c r="O105">
         <v>1</v>
@@ -18106,16 +18102,16 @@
         <v>29</v>
       </c>
       <c r="Q105" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="R105" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
       <c r="S105" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T105" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U105">
         <v>0</v>
@@ -18219,25 +18215,25 @@
         <v>1229</v>
       </c>
       <c r="B106" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" t="s">
-        <v>210</v>
+        <v>483</v>
       </c>
       <c r="E106">
         <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G106">
         <v>27</v>
       </c>
       <c r="H106" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -18255,7 +18251,7 @@
         <v>0.5034986138343811</v>
       </c>
       <c r="N106" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
       <c r="O106">
         <v>0</v>
@@ -18264,16 +18260,16 @@
         <v>30</v>
       </c>
       <c r="Q106" t="s">
-        <v>401</v>
+        <v>475</v>
       </c>
       <c r="R106" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S106" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T106" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="U106">
         <v>1</v>
@@ -18377,25 +18373,25 @@
         <v>682</v>
       </c>
       <c r="B107" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E107">
         <v>5.5</v>
       </c>
       <c r="F107" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G107">
         <v>13</v>
       </c>
       <c r="H107" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="I107">
         <v>1</v>
@@ -18413,7 +18409,7 @@
         <v>7.0249766111373901</v>
       </c>
       <c r="N107" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="O107">
         <v>0</v>
@@ -18422,16 +18418,16 @@
         <v>48</v>
       </c>
       <c r="Q107" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="R107" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S107" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T107" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="U107">
         <v>1</v>
@@ -18535,25 +18531,25 @@
         <v>1143</v>
       </c>
       <c r="B108" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C108">
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="E108">
         <v>9.5</v>
       </c>
       <c r="F108" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G108">
         <v>24</v>
       </c>
       <c r="H108" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -18571,7 +18567,7 @@
         <v>1.536045968532562</v>
       </c>
       <c r="N108" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="O108">
         <v>1</v>
@@ -18580,16 +18576,16 @@
         <v>56</v>
       </c>
       <c r="Q108" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="R108" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S108" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T108" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="U108">
         <v>0</v>
@@ -18693,25 +18689,25 @@
         <v>276</v>
       </c>
       <c r="B109" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C109">
         <v>1</v>
       </c>
       <c r="D109" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E109">
         <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="G109">
         <v>7</v>
       </c>
       <c r="H109" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
       <c r="I109">
         <v>1</v>
@@ -18729,7 +18725,7 @@
         <v>4.4241338595747948</v>
       </c>
       <c r="N109" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="O109">
         <v>0</v>
@@ -18738,16 +18734,16 @@
         <v>58</v>
       </c>
       <c r="Q109" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R109" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S109" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T109" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="U109">
         <v>1</v>
@@ -18851,25 +18847,25 @@
         <v>1223</v>
       </c>
       <c r="B110" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C110">
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>210</v>
+        <v>483</v>
       </c>
       <c r="E110">
         <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="G110">
         <v>27</v>
       </c>
       <c r="H110" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -18887,7 +18883,7 @@
         <v>4.9584627337753773</v>
       </c>
       <c r="N110" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="O110">
         <v>1</v>
@@ -18896,16 +18892,16 @@
         <v>51</v>
       </c>
       <c r="Q110" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="R110" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S110" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T110" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="U110">
         <v>1</v>
@@ -19009,25 +19005,25 @@
         <v>302</v>
       </c>
       <c r="B111" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C111">
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E111">
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="G111">
         <v>7</v>
       </c>
       <c r="H111" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -19045,7 +19041,7 @@
         <v>0.66590309143066406</v>
       </c>
       <c r="N111" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="O111">
         <v>1</v>
@@ -19054,16 +19050,16 @@
         <v>38</v>
       </c>
       <c r="Q111" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="R111" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S111" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T111" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="U111">
         <v>1</v>
@@ -19167,25 +19163,25 @@
         <v>1161</v>
       </c>
       <c r="B112" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C112">
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E112">
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="G112">
         <v>25</v>
       </c>
       <c r="H112" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -19203,7 +19199,7 @@
         <v>6.845528781414032</v>
       </c>
       <c r="N112" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="O112">
         <v>0</v>
@@ -19212,16 +19208,16 @@
         <v>78</v>
       </c>
       <c r="Q112" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="R112" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S112" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T112" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="U112">
         <v>1</v>
@@ -19325,13 +19321,13 @@
         <v>1337</v>
       </c>
       <c r="B113" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E113">
         <v>8</v>
@@ -19355,7 +19351,7 @@
         <v>4.9898081261198968</v>
       </c>
       <c r="N113" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="O113">
         <v>0</v>
@@ -19364,10 +19360,10 @@
         <v>54</v>
       </c>
       <c r="Q113" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="S113" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U113">
         <v>0</v>
@@ -19465,25 +19461,25 @@
         <v>1274</v>
       </c>
       <c r="B114" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C114">
         <v>1</v>
       </c>
       <c r="D114" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E114">
         <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="G114">
         <v>28</v>
       </c>
       <c r="H114" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="I114">
         <v>1</v>
@@ -19501,7 +19497,7 @@
         <v>4.5427271723747253</v>
       </c>
       <c r="N114" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="O114">
         <v>1</v>
@@ -19510,16 +19506,16 @@
         <v>36</v>
       </c>
       <c r="Q114" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="R114" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="S114" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T114" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U114">
         <v>0</v>
@@ -19623,25 +19619,25 @@
         <v>740</v>
       </c>
       <c r="B115" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E115">
         <v>6</v>
       </c>
       <c r="F115" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G115">
         <v>15</v>
       </c>
       <c r="H115" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -19659,7 +19655,7 @@
         <v>4.7503253258764744</v>
       </c>
       <c r="N115" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="O115">
         <v>0</v>
@@ -19668,16 +19664,16 @@
         <v>44</v>
       </c>
       <c r="Q115" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R115" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="S115" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T115" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U115">
         <v>0</v>
@@ -19781,25 +19777,25 @@
         <v>472</v>
       </c>
       <c r="B116" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E116">
         <v>5.5</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G116">
         <v>10</v>
       </c>
       <c r="H116" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -19817,7 +19813,7 @@
         <v>4.7260895185172558</v>
       </c>
       <c r="N116" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="O116">
         <v>0</v>
@@ -19826,16 +19822,16 @@
         <v>52</v>
       </c>
       <c r="Q116" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R116" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S116" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T116" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="U116">
         <v>1</v>
@@ -19939,25 +19935,25 @@
         <v>724</v>
       </c>
       <c r="B117" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E117">
         <v>5.5</v>
       </c>
       <c r="F117" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G117">
         <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="I117">
         <v>1</v>
@@ -19975,7 +19971,7 @@
         <v>0.83696126937866211</v>
       </c>
       <c r="N117" t="s">
-        <v>426</v>
+        <v>393</v>
       </c>
       <c r="O117">
         <v>0</v>
@@ -19984,16 +19980,16 @@
         <v>41</v>
       </c>
       <c r="Q117" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="R117" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S117" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T117" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="U117">
         <v>1</v>
@@ -20097,25 +20093,25 @@
         <v>1212</v>
       </c>
       <c r="B118" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C118">
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E118">
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="G118">
         <v>26</v>
       </c>
       <c r="H118" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -20133,7 +20129,7 @@
         <v>4.0979988873004913</v>
       </c>
       <c r="N118" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="O118">
         <v>0</v>
@@ -20142,16 +20138,16 @@
         <v>32</v>
       </c>
       <c r="Q118" t="s">
-        <v>275</v>
+        <v>484</v>
       </c>
       <c r="R118" t="s">
-        <v>431</v>
+        <v>398</v>
       </c>
       <c r="S118" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T118" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U118">
         <v>0</v>
@@ -20255,25 +20251,25 @@
         <v>769</v>
       </c>
       <c r="B119" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C119">
         <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E119">
         <v>6</v>
       </c>
       <c r="F119" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G119">
         <v>15</v>
       </c>
       <c r="H119" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="I119">
         <v>1</v>
@@ -20291,7 +20287,7 @@
         <v>1.7496159672737119</v>
       </c>
       <c r="N119" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="O119">
         <v>1</v>
@@ -20300,16 +20296,16 @@
         <v>31</v>
       </c>
       <c r="Q119" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="R119" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S119" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T119" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="U119">
         <v>0</v>
@@ -20413,25 +20409,25 @@
         <v>823</v>
       </c>
       <c r="B120" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C120">
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E120">
         <v>7</v>
       </c>
       <c r="F120" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G120">
         <v>17</v>
       </c>
       <c r="H120" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="I120">
         <v>1</v>
@@ -20449,7 +20445,7 @@
         <v>4.5157710835337639</v>
       </c>
       <c r="N120" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="O120">
         <v>1</v>
@@ -20458,16 +20454,16 @@
         <v>48</v>
       </c>
       <c r="Q120" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="R120" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S120" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T120" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="U120">
         <v>0</v>
@@ -20571,13 +20567,13 @@
         <v>1336</v>
       </c>
       <c r="B121" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C121">
         <v>0</v>
       </c>
       <c r="D121" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E121">
         <v>8</v>
@@ -20601,7 +20597,7 @@
         <v>7.2077944874763489</v>
       </c>
       <c r="N121" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="O121">
         <v>1</v>
@@ -20610,10 +20606,10 @@
         <v>36</v>
       </c>
       <c r="Q121" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="S121" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="U121">
         <v>0</v>
@@ -20711,25 +20707,25 @@
         <v>189</v>
       </c>
       <c r="B122" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C122">
         <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E122">
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G122">
         <v>5</v>
       </c>
       <c r="H122" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -20747,7 +20743,7 @@
         <v>1.4462709426879881</v>
       </c>
       <c r="N122" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="O122">
         <v>1</v>
@@ -20756,16 +20752,16 @@
         <v>40</v>
       </c>
       <c r="Q122" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R122" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S122" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T122" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="U122">
         <v>0</v>
@@ -20869,25 +20865,25 @@
         <v>968</v>
       </c>
       <c r="B123" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C123">
         <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E123">
         <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="G123">
         <v>20</v>
       </c>
       <c r="H123" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="I123">
         <v>1</v>
@@ -20905,7 +20901,7 @@
         <v>1.1161342263221741</v>
       </c>
       <c r="N123" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="O123">
         <v>1</v>
@@ -20914,16 +20910,16 @@
         <v>50</v>
       </c>
       <c r="Q123" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="R123" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S123" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T123" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="U123">
         <v>1</v>
@@ -21027,25 +21023,25 @@
         <v>826</v>
       </c>
       <c r="B124" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C124">
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E124">
         <v>7</v>
       </c>
       <c r="F124" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G124">
         <v>17</v>
       </c>
       <c r="H124" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -21063,7 +21059,7 @@
         <v>6.7817115783691406</v>
       </c>
       <c r="N124" t="s">
-        <v>441</v>
+        <v>408</v>
       </c>
       <c r="O124">
         <v>0</v>
@@ -21072,16 +21068,16 @@
         <v>39</v>
       </c>
       <c r="Q124" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="R124" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S124" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T124" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="U124">
         <v>0</v>
@@ -21185,25 +21181,25 @@
         <v>161</v>
       </c>
       <c r="B125" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E125">
         <v>4</v>
       </c>
       <c r="F125" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="G125">
         <v>5</v>
       </c>
       <c r="H125" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="I125">
         <v>1</v>
@@ -21221,7 +21217,7 @@
         <v>5.7992319017648697</v>
       </c>
       <c r="N125" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="O125">
         <v>0</v>
@@ -21230,16 +21226,16 @@
         <v>38</v>
       </c>
       <c r="Q125" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R125" t="s">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="S125" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="T125" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U125">
         <v>0</v>
@@ -21343,25 +21339,25 @@
         <v>435</v>
       </c>
       <c r="B126" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E126">
         <v>5.5</v>
       </c>
       <c r="F126" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G126">
         <v>9</v>
       </c>
       <c r="H126" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -21379,7 +21375,7 @@
         <v>6.7544090747833252</v>
       </c>
       <c r="N126" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="O126">
         <v>1</v>
@@ -21388,16 +21384,16 @@
         <v>35</v>
       </c>
       <c r="Q126" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R126" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S126" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T126" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="U126">
         <v>1</v>
@@ -21501,25 +21497,25 @@
         <v>955</v>
       </c>
       <c r="B127" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E127">
         <v>8</v>
       </c>
       <c r="F127" t="s">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="G127">
         <v>20</v>
       </c>
       <c r="H127" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -21537,7 +21533,7 @@
         <v>1.319436728954315</v>
       </c>
       <c r="N127" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="O127">
         <v>0</v>
@@ -21546,16 +21542,16 @@
         <v>47</v>
       </c>
       <c r="Q127" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R127" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S127" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T127" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="U127">
         <v>0</v>
@@ -21659,25 +21655,25 @@
         <v>1252</v>
       </c>
       <c r="B128" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E128">
         <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="G128">
         <v>28</v>
       </c>
       <c r="H128" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="I128">
         <v>1</v>
@@ -21695,7 +21691,7 @@
         <v>7.6191508769989014</v>
       </c>
       <c r="N128" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="O128">
         <v>0</v>
@@ -21704,16 +21700,16 @@
         <v>54</v>
       </c>
       <c r="Q128" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R128" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S128" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T128" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U128">
         <v>1</v>
@@ -21817,25 +21813,25 @@
         <v>1074</v>
       </c>
       <c r="B129" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="E129">
         <v>9</v>
       </c>
       <c r="F129" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G129">
         <v>23</v>
       </c>
       <c r="H129" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="I129">
         <v>1</v>
@@ -21853,7 +21849,7 @@
         <v>4.8573487345129251</v>
       </c>
       <c r="N129" t="s">
-        <v>448</v>
+        <v>415</v>
       </c>
       <c r="O129">
         <v>0</v>
@@ -21862,16 +21858,16 @@
         <v>68</v>
       </c>
       <c r="Q129" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R129" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S129" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T129" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="U129">
         <v>1</v>
@@ -21975,25 +21971,25 @@
         <v>480</v>
       </c>
       <c r="B130" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C130">
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E130">
         <v>5.5</v>
       </c>
       <c r="F130" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G130">
         <v>10</v>
       </c>
       <c r="H130" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="I130">
         <v>1</v>
@@ -22011,7 +22007,7 @@
         <v>0.67449599504470825</v>
       </c>
       <c r="N130" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="O130">
         <v>0</v>
@@ -22020,16 +22016,16 @@
         <v>51</v>
       </c>
       <c r="Q130" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="R130" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S130" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T130" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="U130">
         <v>0</v>
@@ -22133,25 +22129,25 @@
         <v>549</v>
       </c>
       <c r="B131" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C131">
         <v>1</v>
       </c>
       <c r="D131" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E131">
         <v>5.5</v>
       </c>
       <c r="F131" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="G131">
         <v>11</v>
       </c>
       <c r="H131" t="s">
-        <v>336</v>
+        <v>310</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -22169,7 +22165,7 @@
         <v>7.7915963530540466</v>
       </c>
       <c r="N131" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="O131">
         <v>1</v>
@@ -22178,16 +22174,16 @@
         <v>54</v>
       </c>
       <c r="Q131" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R131" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S131" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T131" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="U131">
         <v>0</v>
@@ -22291,25 +22287,25 @@
         <v>359</v>
       </c>
       <c r="B132" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E132">
         <v>5.5</v>
       </c>
       <c r="F132" t="s">
-        <v>151</v>
+        <v>486</v>
       </c>
       <c r="G132">
         <v>8</v>
       </c>
       <c r="H132" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="I132">
         <v>1</v>
@@ -22327,7 +22323,7 @@
         <v>5.9590964764356613</v>
       </c>
       <c r="N132" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="O132">
         <v>0</v>
@@ -22336,16 +22332,16 @@
         <v>75</v>
       </c>
       <c r="Q132" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="R132" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S132" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T132" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="U132">
         <v>0</v>
@@ -22446,25 +22442,25 @@
         <v>901</v>
       </c>
       <c r="B133" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C133">
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>299</v>
+        <v>275</v>
       </c>
       <c r="E133">
         <v>7.5</v>
       </c>
       <c r="F133" t="s">
-        <v>300</v>
+        <v>480</v>
       </c>
       <c r="G133">
         <v>19</v>
       </c>
       <c r="H133" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="I133">
         <v>1</v>
@@ -22482,7 +22478,7 @@
         <v>7.7015647292137146</v>
       </c>
       <c r="N133" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="O133">
         <v>0</v>
@@ -22491,16 +22487,16 @@
         <v>42</v>
       </c>
       <c r="Q133" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="R133" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S133" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T133" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U133">
         <v>1</v>
@@ -22604,25 +22600,25 @@
         <v>473</v>
       </c>
       <c r="B134" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C134">
         <v>1</v>
       </c>
       <c r="D134" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E134">
         <v>5.5</v>
       </c>
       <c r="F134" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G134">
         <v>10</v>
       </c>
       <c r="H134" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="I134">
         <v>1</v>
@@ -22640,7 +22636,7 @@
         <v>7.2189715504646301</v>
       </c>
       <c r="N134" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="O134">
         <v>1</v>
@@ -22649,16 +22645,16 @@
         <v>48</v>
       </c>
       <c r="Q134" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="R134" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S134" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T134" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="U134">
         <v>0</v>
@@ -22762,25 +22758,25 @@
         <v>946</v>
       </c>
       <c r="B135" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C135">
         <v>1</v>
       </c>
       <c r="D135" t="s">
-        <v>155</v>
+        <v>472</v>
       </c>
       <c r="E135">
         <v>8</v>
       </c>
       <c r="F135" t="s">
-        <v>156</v>
+        <v>462</v>
       </c>
       <c r="G135">
         <v>20</v>
       </c>
       <c r="H135" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -22798,7 +22794,7 @@
         <v>7.0509068667888641</v>
       </c>
       <c r="N135" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
       <c r="O135">
         <v>1</v>
@@ -22807,16 +22803,16 @@
         <v>42</v>
       </c>
       <c r="Q135" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R135" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S135" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T135" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="U135">
         <v>0</v>
@@ -22920,25 +22916,25 @@
         <v>1087</v>
       </c>
       <c r="B136" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C136">
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="E136">
         <v>9</v>
       </c>
       <c r="F136" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G136">
         <v>23</v>
       </c>
       <c r="H136" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="I136">
         <v>1</v>
@@ -22956,7 +22952,7 @@
         <v>4.9972223764052606</v>
       </c>
       <c r="N136" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="O136">
         <v>1</v>
@@ -22965,16 +22961,16 @@
         <v>38</v>
       </c>
       <c r="Q136" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R136" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S136" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="T136" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
       <c r="U136">
         <v>0</v>
@@ -23078,25 +23074,25 @@
         <v>427</v>
       </c>
       <c r="B137" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C137">
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E137">
         <v>5.5</v>
       </c>
       <c r="F137" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G137">
         <v>9</v>
       </c>
       <c r="H137" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="I137">
         <v>1</v>
@@ -23114,7 +23110,7 @@
         <v>0.55509030818939209</v>
       </c>
       <c r="N137" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="O137">
         <v>0</v>
@@ -23123,16 +23119,16 @@
         <v>32</v>
       </c>
       <c r="Q137" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R137" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S137" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T137" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="U137">
         <v>1</v>
@@ -23236,25 +23232,25 @@
         <v>1132</v>
       </c>
       <c r="B138" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C138">
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>64</v>
+        <v>470</v>
       </c>
       <c r="E138">
         <v>9.5</v>
       </c>
       <c r="F138" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="G138">
         <v>24</v>
       </c>
       <c r="H138" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="I138">
         <v>1</v>
@@ -23272,7 +23268,7 @@
         <v>6.8603557348251343</v>
       </c>
       <c r="N138" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
       <c r="O138">
         <v>0</v>
@@ -23281,16 +23277,16 @@
         <v>38</v>
       </c>
       <c r="Q138" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="R138" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S138" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T138" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U138">
         <v>1</v>
@@ -23394,25 +23390,25 @@
         <v>1034</v>
       </c>
       <c r="B139" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C139">
         <v>1</v>
       </c>
       <c r="D139" t="s">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="E139">
         <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="G139">
         <v>22</v>
       </c>
       <c r="H139" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -23430,7 +23426,7 @@
         <v>7.8332549333572388</v>
       </c>
       <c r="N139" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="O139">
         <v>0</v>
@@ -23439,16 +23435,16 @@
         <v>25</v>
       </c>
       <c r="Q139" t="s">
-        <v>324</v>
+        <v>298</v>
       </c>
       <c r="R139" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S139" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T139" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U139">
         <v>1</v>
@@ -23552,25 +23548,25 @@
         <v>638</v>
       </c>
       <c r="B140" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C140">
         <v>1</v>
       </c>
       <c r="D140" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E140">
         <v>5.5</v>
       </c>
       <c r="F140" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="G140">
         <v>12</v>
       </c>
       <c r="H140" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="I140">
         <v>1</v>
@@ -23588,7 +23584,7 @@
         <v>4.5203179121017456</v>
       </c>
       <c r="N140" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="O140">
         <v>0</v>
@@ -23597,16 +23593,16 @@
         <v>62</v>
       </c>
       <c r="Q140" t="s">
-        <v>397</v>
+        <v>468</v>
       </c>
       <c r="R140" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="S140" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T140" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U140">
         <v>0</v>
@@ -23710,25 +23706,25 @@
         <v>527</v>
       </c>
       <c r="B141" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C141">
         <v>1</v>
       </c>
       <c r="D141" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E141">
         <v>5.5</v>
       </c>
       <c r="F141" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G141">
         <v>10</v>
       </c>
       <c r="H141" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
       <c r="I141">
         <v>1</v>
@@ -23746,7 +23742,7 @@
         <v>3.4562106430530548</v>
       </c>
       <c r="N141" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="O141">
         <v>1</v>
@@ -23755,16 +23751,16 @@
         <v>69</v>
       </c>
       <c r="Q141" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="R141" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
       <c r="S141" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="T141" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="U141">
         <v>0</v>
@@ -23868,25 +23864,25 @@
         <v>570</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C142">
         <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E142">
         <v>5.5</v>
       </c>
       <c r="F142" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="G142">
         <v>11</v>
       </c>
       <c r="H142" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -23904,7 +23900,7 @@
         <v>0.70793032646179199</v>
       </c>
       <c r="N142" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="O142">
         <v>1</v>
@@ -23913,16 +23909,16 @@
         <v>32</v>
       </c>
       <c r="Q142" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R142" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S142" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T142" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="U142">
         <v>1</v>
@@ -24026,25 +24022,25 @@
         <v>838</v>
       </c>
       <c r="B143" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C143">
         <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E143">
         <v>7</v>
       </c>
       <c r="F143" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="G143">
         <v>17</v>
       </c>
       <c r="H143" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
       <c r="I143">
         <v>1</v>
@@ -24062,7 +24058,7 @@
         <v>0.56070864200592041</v>
       </c>
       <c r="N143" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="O143">
         <v>0</v>
@@ -24071,16 +24067,16 @@
         <v>48</v>
       </c>
       <c r="Q143" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R143" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S143" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T143" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
       <c r="U143">
         <v>0</v>
@@ -24184,25 +24180,25 @@
         <v>566</v>
       </c>
       <c r="B144" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E144">
         <v>5.5</v>
       </c>
       <c r="F144" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="G144">
         <v>11</v>
       </c>
       <c r="H144" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -24220,7 +24216,7 @@
         <v>1.8866404891014099</v>
       </c>
       <c r="N144" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
       <c r="O144">
         <v>0</v>
@@ -24229,16 +24225,16 @@
         <v>51</v>
       </c>
       <c r="Q144" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="R144" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S144" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T144" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="U144">
         <v>0</v>
@@ -24342,25 +24338,25 @@
         <v>550</v>
       </c>
       <c r="B145" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C145">
         <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E145">
         <v>5.5</v>
       </c>
       <c r="F145" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="G145">
         <v>11</v>
       </c>
       <c r="H145" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -24378,7 +24374,7 @@
         <v>4.179275780916214</v>
       </c>
       <c r="N145" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="O145">
         <v>0</v>
@@ -24387,16 +24383,16 @@
         <v>46</v>
       </c>
       <c r="Q145" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R145" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S145" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T145" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="U145">
         <v>1</v>
@@ -24500,25 +24496,25 @@
         <v>489</v>
       </c>
       <c r="B146" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C146">
         <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E146">
         <v>5.5</v>
       </c>
       <c r="F146" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G146">
         <v>10</v>
       </c>
       <c r="H146" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="I146">
         <v>1</v>
@@ -24536,7 +24532,7 @@
         <v>0.94335347414016724</v>
       </c>
       <c r="N146" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
       <c r="O146">
         <v>1</v>
@@ -24545,16 +24541,16 @@
         <v>34</v>
       </c>
       <c r="Q146" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="R146" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S146" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T146" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="U146">
         <v>1</v>
@@ -24658,25 +24654,25 @@
         <v>750</v>
       </c>
       <c r="B147" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E147">
         <v>6</v>
       </c>
       <c r="F147" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G147">
         <v>15</v>
       </c>
       <c r="H147" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -24694,7 +24690,7 @@
         <v>7.1056772768497467</v>
       </c>
       <c r="N147" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="O147">
         <v>1</v>
@@ -24703,16 +24699,16 @@
         <v>42</v>
       </c>
       <c r="Q147" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R147" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S147" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T147" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U147">
         <v>1</v>
@@ -24816,25 +24812,25 @@
         <v>552</v>
       </c>
       <c r="B148" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C148">
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E148">
         <v>5.5</v>
       </c>
       <c r="F148" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="G148">
         <v>11</v>
       </c>
       <c r="H148" t="s">
-        <v>328</v>
+        <v>302</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -24852,7 +24848,7 @@
         <v>5.4328497871756554</v>
       </c>
       <c r="N148" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
       <c r="O148">
         <v>0</v>
@@ -24861,16 +24857,16 @@
         <v>56</v>
       </c>
       <c r="Q148" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="R148" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S148" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T148" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="U148">
         <v>0</v>
@@ -24974,25 +24970,25 @@
         <v>555</v>
       </c>
       <c r="B149" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C149">
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E149">
         <v>5.5</v>
       </c>
       <c r="F149" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="G149">
         <v>11</v>
       </c>
       <c r="H149" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -25010,7 +25006,7 @@
         <v>7.4428273737430573</v>
       </c>
       <c r="N149" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
       <c r="O149">
         <v>1</v>
@@ -25019,16 +25015,16 @@
         <v>35</v>
       </c>
       <c r="Q149" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="R149" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S149" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T149" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U149">
         <v>1</v>
@@ -25132,25 +25128,25 @@
         <v>288</v>
       </c>
       <c r="B150" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E150">
         <v>5</v>
       </c>
       <c r="F150" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="G150">
         <v>7</v>
       </c>
       <c r="H150" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="I150">
         <v>1</v>
@@ -25168,7 +25164,7 @@
         <v>4.1515108942985526</v>
       </c>
       <c r="N150" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="O150">
         <v>0</v>
@@ -25177,16 +25173,16 @@
         <v>76</v>
       </c>
       <c r="Q150" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="R150" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S150" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T150" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="U150">
         <v>0</v>
@@ -25290,25 +25286,25 @@
         <v>207</v>
       </c>
       <c r="B151" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C151">
         <v>1</v>
       </c>
       <c r="D151" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E151">
         <v>5</v>
       </c>
       <c r="F151" t="s">
-        <v>161</v>
+        <v>482</v>
       </c>
       <c r="G151">
         <v>6</v>
       </c>
       <c r="H151" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -25326,7 +25322,7 @@
         <v>4.2990668118000031</v>
       </c>
       <c r="N151" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="O151">
         <v>0</v>
@@ -25335,16 +25331,16 @@
         <v>34</v>
       </c>
       <c r="Q151" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R151" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S151" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T151" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="U151">
         <v>0</v>
@@ -25448,25 +25444,25 @@
         <v>787</v>
       </c>
       <c r="B152" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E152">
         <v>6</v>
       </c>
       <c r="F152" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G152">
         <v>16</v>
       </c>
       <c r="H152" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="I152">
         <v>1</v>
@@ -25484,7 +25480,7 @@
         <v>7.2663551568984994</v>
       </c>
       <c r="N152" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
       <c r="O152">
         <v>0</v>
@@ -25493,16 +25489,16 @@
         <v>33</v>
       </c>
       <c r="Q152" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R152" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S152" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T152" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="U152">
         <v>0</v>
@@ -25606,25 +25602,25 @@
         <v>488</v>
       </c>
       <c r="B153" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E153">
         <v>5.5</v>
       </c>
       <c r="F153" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G153">
         <v>10</v>
       </c>
       <c r="H153" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="I153">
         <v>1</v>
@@ -25642,7 +25638,7 @@
         <v>0.27843266725540161</v>
       </c>
       <c r="N153" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="O153">
         <v>0</v>
@@ -25651,16 +25647,16 @@
         <v>52</v>
       </c>
       <c r="Q153" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R153" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S153" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T153" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="U153">
         <v>0</v>
@@ -25764,25 +25760,25 @@
         <v>416</v>
       </c>
       <c r="B154" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E154">
         <v>5.5</v>
       </c>
       <c r="F154" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G154">
         <v>9</v>
       </c>
       <c r="H154" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="I154">
         <v>1</v>
@@ -25800,7 +25796,7 @@
         <v>8.3388108015060425</v>
       </c>
       <c r="N154" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="O154">
         <v>0</v>
@@ -25809,16 +25805,16 @@
         <v>38</v>
       </c>
       <c r="Q154" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="R154" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="S154" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="T154" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="U154">
         <v>1</v>
@@ -25922,25 +25918,25 @@
         <v>879</v>
       </c>
       <c r="B155" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C155">
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E155">
         <v>7</v>
       </c>
       <c r="F155" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G155">
         <v>18</v>
       </c>
       <c r="H155" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -25958,7 +25954,7 @@
         <v>0.26939749717712402</v>
       </c>
       <c r="N155" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="O155">
         <v>0</v>
@@ -25967,16 +25963,16 @@
         <v>37</v>
       </c>
       <c r="Q155" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R155" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="S155" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="T155" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="U155">
         <v>1</v>
@@ -26080,25 +26076,25 @@
         <v>299</v>
       </c>
       <c r="B156" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C156">
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>61</v>
+        <v>469</v>
       </c>
       <c r="E156">
         <v>5</v>
       </c>
       <c r="F156" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="G156">
         <v>7</v>
       </c>
       <c r="H156" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -26116,7 +26112,7 @@
         <v>0.67884713411331177</v>
       </c>
       <c r="N156" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="O156">
         <v>0</v>
@@ -26125,16 +26121,16 @@
         <v>44</v>
       </c>
       <c r="Q156" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="R156" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="S156" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="T156" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
       <c r="U156">
         <v>0</v>
